--- a/data_voor_swing/gebiedsdefinities/woonmaatschappij.xlsx
+++ b/data_voor_swing/gebiedsdefinities/woonmaatschappij.xlsx
@@ -1193,12 +1193,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Woonmaatschappij onbekend (Brussel)</t>
+          <t>Werkingsgebied woonmaatschappij onbekend (Brussel)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Woonmaatschappij onbekend (Brussel)</t>
+          <t>Werkingsgebied woonmaatschappij onbekend (Brussel)</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Woonmaatschappij onbekend (Vlaanderen)</t>
+          <t>Werkingsgebied woonmaatschappij onbekend (Vlaanderen)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Woonmaatschappij onbekend (Vlaanderen)</t>
+          <t>Werkingsgebied woonmaatschappij onbekend (Vlaanderen)</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/gebiedsdefinities/woonmaatschappij.xlsx
+++ b/data_voor_swing/gebiedsdefinities/woonmaatschappij.xlsx
@@ -847,16 +847,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="23">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Midden</t>
+          <t>Niet te lokaliseren</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Midden</t>
+          <t>Niet te lokaliseren</t>
         </is>
       </c>
     </row>
@@ -865,16 +865,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Oost</t>
+          <t>Oost-Brabant-Midden</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Oost</t>
+          <t>Oost-Brabant-Midden</t>
         </is>
       </c>
     </row>
@@ -883,16 +883,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oost-Brabant-West</t>
+          <t>Oost-Brabant-Oost</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Oost-Brabant-West</t>
+          <t>Oost-Brabant-Oost</t>
         </is>
       </c>
     </row>
@@ -901,16 +901,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oostende</t>
+          <t>Oost-Brabant-West</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Oostende</t>
+          <t>Oost-Brabant-West</t>
         </is>
       </c>
     </row>
@@ -919,16 +919,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rivierenland-Midden</t>
+          <t>Oostende</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rivierenland-Midden</t>
+          <t>Oostende</t>
         </is>
       </c>
     </row>
@@ -937,16 +937,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rivierenland-Oost</t>
+          <t>Rivierenland-Midden</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rivierenland-Oost</t>
+          <t>Rivierenland-Midden</t>
         </is>
       </c>
     </row>
@@ -955,16 +955,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rivierenland-West</t>
+          <t>Rivierenland-Oost</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rivierenland-West</t>
+          <t>Rivierenland-Oost</t>
         </is>
       </c>
     </row>
@@ -973,16 +973,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-Oost</t>
+          <t>Rivierenland-West</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-Oost</t>
+          <t>Rivierenland-West</t>
         </is>
       </c>
     </row>
@@ -991,16 +991,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-West</t>
+          <t>Vlaamse Ardennen-Oost</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-West</t>
+          <t>Vlaamse Ardennen-Oost</t>
         </is>
       </c>
     </row>
@@ -1009,16 +1009,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Waasland-Midden</t>
+          <t>Vlaamse Ardennen-West</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Waasland-Midden</t>
+          <t>Vlaamse Ardennen-West</t>
         </is>
       </c>
     </row>
@@ -1027,16 +1027,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="23">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Waasland-Oost</t>
+          <t>Waasland-Midden</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Waasland-Oost</t>
+          <t>Waasland-Midden</t>
         </is>
       </c>
     </row>
@@ -1045,16 +1045,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Waasland-West</t>
+          <t>Waasland-Oost</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Waasland-West</t>
+          <t>Waasland-Oost</t>
         </is>
       </c>
     </row>
@@ -1063,16 +1063,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Westhoek-Noord</t>
+          <t>Waasland-West</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Westhoek-Noord</t>
+          <t>Waasland-West</t>
         </is>
       </c>
     </row>
@@ -1081,16 +1081,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Westhoek-Zuid</t>
+          <t>Westhoek-Noord</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Westhoek-Zuid</t>
+          <t>Westhoek-Noord</t>
         </is>
       </c>
     </row>
@@ -1099,16 +1099,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="23">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Willebroek-Mechelen</t>
+          <t>Westhoek-Zuid</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Willebroek-Mechelen</t>
+          <t>Westhoek-Zuid</t>
         </is>
       </c>
     </row>
@@ -1117,16 +1117,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Midden</t>
+          <t>Willebroek-Mechelen</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Midden</t>
+          <t>Willebroek-Mechelen</t>
         </is>
       </c>
     </row>
@@ -1135,16 +1135,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="23">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-West</t>
+          <t>Zuid-West-Vlaanderen-Midden</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-West</t>
+          <t>Zuid-West-Vlaanderen-Midden</t>
         </is>
       </c>
     </row>
@@ -1153,16 +1153,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="23">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Zuid</t>
+          <t>Zuid-West-Vlaanderen-West</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Zuid</t>
+          <t>Zuid-West-Vlaanderen-West</t>
         </is>
       </c>
     </row>
@@ -1171,16 +1171,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="23">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Buiten Vlaanderen en Brussel</t>
+          <t>Zuid-West-Vlaanderen-Zuid</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Buiten Vlaanderen en Brussel</t>
+          <t>Zuid-West-Vlaanderen-Zuid</t>
         </is>
       </c>
     </row>
@@ -1189,16 +1189,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="23">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/gebiedsdefinities/woonmaatschappij.xlsx
+++ b/data_voor_swing/gebiedsdefinities/woonmaatschappij.xlsx
@@ -847,16 +847,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="23">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Oost-Brabant-Midden</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Niet te lokaliseren</t>
+          <t>Oost-Brabant-Midden</t>
         </is>
       </c>
     </row>
@@ -865,16 +865,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Midden</t>
+          <t>Oost-Brabant-Oost</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Midden</t>
+          <t>Oost-Brabant-Oost</t>
         </is>
       </c>
     </row>
@@ -883,16 +883,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Oost</t>
+          <t>Oost-Brabant-West</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Oost-Brabant-Oost</t>
+          <t>Oost-Brabant-West</t>
         </is>
       </c>
     </row>
@@ -901,16 +901,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oost-Brabant-West</t>
+          <t>Oostende</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Oost-Brabant-West</t>
+          <t>Oostende</t>
         </is>
       </c>
     </row>
@@ -919,16 +919,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Oostende</t>
+          <t>Rivierenland-Midden</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Oostende</t>
+          <t>Rivierenland-Midden</t>
         </is>
       </c>
     </row>
@@ -937,16 +937,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rivierenland-Midden</t>
+          <t>Rivierenland-Oost</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rivierenland-Midden</t>
+          <t>Rivierenland-Oost</t>
         </is>
       </c>
     </row>
@@ -955,16 +955,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rivierenland-Oost</t>
+          <t>Rivierenland-West</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rivierenland-Oost</t>
+          <t>Rivierenland-West</t>
         </is>
       </c>
     </row>
@@ -973,16 +973,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rivierenland-West</t>
+          <t>Vlaamse Ardennen-Oost</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rivierenland-West</t>
+          <t>Vlaamse Ardennen-Oost</t>
         </is>
       </c>
     </row>
@@ -991,16 +991,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-Oost</t>
+          <t>Vlaamse Ardennen-West</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-Oost</t>
+          <t>Vlaamse Ardennen-West</t>
         </is>
       </c>
     </row>
@@ -1009,16 +1009,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-West</t>
+          <t>Waasland-Midden</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Vlaamse Ardennen-West</t>
+          <t>Waasland-Midden</t>
         </is>
       </c>
     </row>
@@ -1027,16 +1027,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Waasland-Midden</t>
+          <t>Waasland-Oost</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Waasland-Midden</t>
+          <t>Waasland-Oost</t>
         </is>
       </c>
     </row>
@@ -1045,16 +1045,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Waasland-Oost</t>
+          <t>Waasland-West</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Waasland-Oost</t>
+          <t>Waasland-West</t>
         </is>
       </c>
     </row>
@@ -1063,16 +1063,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Waasland-West</t>
+          <t>Westhoek-Noord</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Waasland-West</t>
+          <t>Westhoek-Noord</t>
         </is>
       </c>
     </row>
@@ -1081,16 +1081,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Westhoek-Noord</t>
+          <t>Westhoek-Zuid</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Westhoek-Noord</t>
+          <t>Westhoek-Zuid</t>
         </is>
       </c>
     </row>
@@ -1099,16 +1099,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Westhoek-Zuid</t>
+          <t>Willebroek-Mechelen</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Westhoek-Zuid</t>
+          <t>Willebroek-Mechelen</t>
         </is>
       </c>
     </row>
@@ -1117,16 +1117,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="23">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Willebroek-Mechelen</t>
+          <t>Zuid-West-Vlaanderen-Midden</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Willebroek-Mechelen</t>
+          <t>Zuid-West-Vlaanderen-Midden</t>
         </is>
       </c>
     </row>
@@ -1135,16 +1135,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Midden</t>
+          <t>Zuid-West-Vlaanderen-West</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Midden</t>
+          <t>Zuid-West-Vlaanderen-West</t>
         </is>
       </c>
     </row>
@@ -1153,16 +1153,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="23">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-West</t>
+          <t>Zuid-West-Vlaanderen-Zuid</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-West</t>
+          <t>Zuid-West-Vlaanderen-Zuid</t>
         </is>
       </c>
     </row>
@@ -1171,16 +1171,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="23">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Zuid</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Zuid-West-Vlaanderen-Zuid</t>
+          <t>Buiten Vlaanderen en Brussel</t>
         </is>
       </c>
     </row>
@@ -1189,16 +1189,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="23">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Buiten Vlaanderen en Brussel</t>
+          <t>Niet te lokaliseren</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Buiten Vlaanderen en Brussel</t>
+          <t>Niet te lokaliseren</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Werkingsgebied onbekend (Brussel)</t>
+          <t>Niet te lokaliseren - Brussel</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Werkingsgebied onbekend (Brussel)</t>
+          <t>Niet te lokaliseren - Brussel</t>
         </is>
       </c>
     </row>
@@ -1229,12 +1229,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Werkingsgebied onbekend (Vlaanderen)</t>
+          <t>Niet te lokaliseren - Vlaanderen</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Werkingsgebied onbekend (Vlaanderen)</t>
+          <t>Niet te lokaliseren - Vlaanderen</t>
         </is>
       </c>
     </row>
